--- a/dataFiles/Community.xlsx
+++ b/dataFiles/Community.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logeshwari P\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Carepath-Mobile-Automation\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Field</t>
   </si>
@@ -35,29 +35,56 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>Role</t>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>prabhatewd3341@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
   </si>
   <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>EmployeeText</t>
-  </si>
-  <si>
     <t>I AM AN EMPLOYEE</t>
   </si>
   <si>
-    <t>StudentText</t>
-  </si>
-  <si>
-    <t>I AM A STUDENT</t>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Writedata2</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +99,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +118,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,12 +161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,60 +451,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B4">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
